--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_EnCQR-LSTM_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_EnCQR-LSTM_No_Lineal_Estacionario_SETAR.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.9001271265168816</v>
+        <v>0.6693422934082164</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.888373636049735</v>
+        <v>0.6792272693479734</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.9144369121101344</v>
+        <v>0.6730784396565838</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.8972757458314203</v>
+        <v>0.6725238171670227</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9052714559783743</v>
+        <v>0.6730176862250314</v>
       </c>
     </row>
   </sheetData>
